--- a/input/service/TC-Timesheet.xlsx
+++ b/input/service/TC-Timesheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pronghorn-engine-2.0.0-dist\pronghorn-engine-2.0.0\input\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81013161\Documents\GitHub\pronghorn-engine\input\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,10 +78,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>TC1</t>
-  </si>
-  <si>
     <t>Login User</t>
+  </si>
+  <si>
+    <t>Sub-002</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,10 +576,10 @@
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
